--- a/output7/【河洛文讀注音-閩拼調號】《禮記‧大學》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《禮記‧大學》.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF06324-0157-4548-AC4E-EBE83B70EA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E480A-AF0C-4541-89E2-8FD38EA6B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="4305" yWindow="1350" windowWidth="22395" windowHeight="13035" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
     <sheet name="標音字庫" sheetId="367" r:id="rId3"/>
     <sheet name="缺字表" sheetId="368" r:id="rId4"/>
-    <sheet name="標音字庫 (3)" sheetId="369" r:id="rId5"/>
-    <sheet name="標音字庫 (2)" sheetId="365" r:id="rId6"/>
-    <sheet name="人工標音字庫" sheetId="366" r:id="rId7"/>
+    <sheet name="人工標音字庫" sheetId="366" r:id="rId5"/>
+    <sheet name="標音字庫 (3)" sheetId="369" r:id="rId6"/>
+    <sheet name="標音字庫 (2)" sheetId="365" r:id="rId7"/>
     <sheet name="漢字注音 (2)" sheetId="275" r:id="rId8"/>
     <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId9"/>
     <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId10"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12547" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12552" uniqueCount="2930">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -8544,9 +8544,6 @@
     <t>(13, 7); (89, 17); (97, 5); (97, 10); (149, 18); (489, 16); (493, 7); (497, 11); (553, 13); (617, 13); (621, 16)</t>
   </si>
   <si>
-    <t>(13, 12); (13, 18); (17, 9); (17, 15); (21, 6)</t>
-  </si>
-  <si>
     <t>(13, 14); (13, 16); (341, 11)</t>
   </si>
   <si>
@@ -9368,6 +9365,9 @@
   <si>
     <t>【河洛文讀注音-閩拼調號】《禮記‧大學》.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(13, 18); (17, 9); (17, 15); (21, 6)</t>
   </si>
 </sst>
 </file>
@@ -9691,13 +9691,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="72"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Black"/>
@@ -9738,6 +9731,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFFFF0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -9854,22 +9854,22 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="3">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10053,35 +10053,32 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="5">
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="5">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="7" applyFont="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="47" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+    <xf numFmtId="16" fontId="46" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -10097,6 +10094,23 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="5" applyFill="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="6" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="8" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -12300,7 +12314,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -12594,7 +12608,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="70" t="s">
+      <c r="V3" s="69" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12642,7 +12656,7 @@
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="19"/>
-      <c r="V4" s="73"/>
+      <c r="V4" s="72"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -12694,7 +12708,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="21"/>
-      <c r="V5" s="73"/>
+      <c r="V5" s="72"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -12741,7 +12755,7 @@
       </c>
       <c r="R6" s="24"/>
       <c r="S6" s="25"/>
-      <c r="V6" s="73"/>
+      <c r="V6" s="72"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -12762,7 +12776,7 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="72"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -12806,7 +12820,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="72"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -12860,7 +12874,7 @@
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="72"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -12904,7 +12918,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="31"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="72"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -12924,7 +12938,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="72"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -12970,7 +12984,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="19"/>
-      <c r="V12" s="73"/>
+      <c r="V12" s="72"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -13023,7 +13037,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="21"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="72"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -13069,7 +13083,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="31"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="72"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -13089,7 +13103,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="72"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -13135,7 +13149,7 @@
       </c>
       <c r="R16" s="18"/>
       <c r="S16" s="19"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="72"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -13188,7 +13202,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="21"/>
-      <c r="V17" s="73"/>
+      <c r="V17" s="72"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
@@ -13234,7 +13248,7 @@
       </c>
       <c r="R18" s="24"/>
       <c r="S18" s="31"/>
-      <c r="V18" s="73"/>
+      <c r="V18" s="72"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -13254,7 +13268,7 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="V19" s="73"/>
+      <c r="V19" s="72"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -13274,7 +13288,7 @@
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
       <c r="S20" s="19"/>
-      <c r="V20" s="73"/>
+      <c r="V20" s="72"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -13301,7 +13315,7 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="21"/>
-      <c r="V21" s="73"/>
+      <c r="V21" s="72"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -13321,7 +13335,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="31"/>
-      <c r="V22" s="74"/>
+      <c r="V22" s="73"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -19868,43 +19882,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="43" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="37">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="36">
+    <cfRule type="expression" dxfId="39" priority="35">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="48">
+    <cfRule type="expression" dxfId="37" priority="47">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="47">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="35" priority="34">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="33">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
@@ -19916,19 +19930,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="28">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="27">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -19940,19 +19954,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -19964,35 +19978,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="17">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="15">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
@@ -20004,11 +20018,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -24284,9 +24298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V803"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A786" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O795" sqref="O795"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -24418,7 +24432,7 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="70" t="s">
+      <c r="V3" s="69" t="s">
         <v>2185</v>
       </c>
     </row>
@@ -24448,7 +24462,7 @@
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
       <c r="S4" s="19"/>
-      <c r="V4" s="71"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -24488,7 +24502,7 @@
       <c r="Q5" s="63"/>
       <c r="R5" s="63"/>
       <c r="S5" s="21"/>
-      <c r="V5" s="71"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -24517,7 +24531,7 @@
       <c r="Q6" s="64"/>
       <c r="R6" s="64"/>
       <c r="S6" s="25"/>
-      <c r="V6" s="71"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -24538,7 +24552,7 @@
       <c r="Q7" s="61"/>
       <c r="R7" s="61"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="70"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -24582,7 +24596,7 @@
         <v>342</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="70"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -24636,7 +24650,7 @@
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="70"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -24680,7 +24694,7 @@
         <v>2191</v>
       </c>
       <c r="S10" s="31"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -24693,14 +24707,16 @@
       <c r="I11" s="61"/>
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="L11" s="75" t="s">
+        <v>840</v>
+      </c>
       <c r="M11" s="61"/>
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
       <c r="P11" s="61"/>
       <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="V11" s="71"/>
+      <c r="R11" s="75"/>
+      <c r="V11" s="70"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -24726,7 +24742,7 @@
       <c r="K12" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="76" t="s">
         <v>2199</v>
       </c>
       <c r="M12" s="62" t="s">
@@ -24742,11 +24758,11 @@
       <c r="Q12" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="R12" s="62" t="s">
+      <c r="R12" s="76" t="s">
         <v>2199</v>
       </c>
       <c r="S12" s="19"/>
-      <c r="V12" s="71"/>
+      <c r="V12" s="70"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -24777,7 +24793,7 @@
       <c r="K13" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="63" t="s">
+      <c r="L13" s="74" t="s">
         <v>1942</v>
       </c>
       <c r="M13" s="63" t="s">
@@ -24795,11 +24811,11 @@
       <c r="Q13" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="63" t="s">
+      <c r="R13" s="74" t="s">
         <v>1942</v>
       </c>
       <c r="S13" s="21"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="70"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -24825,7 +24841,7 @@
       <c r="K14" s="64" t="s">
         <v>2198</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="77" t="s">
         <v>2200</v>
       </c>
       <c r="M14" s="64" t="s">
@@ -24841,11 +24857,11 @@
       <c r="Q14" s="64" t="s">
         <v>2198</v>
       </c>
-      <c r="R14" s="64" t="s">
+      <c r="R14" s="77" t="s">
         <v>2200</v>
       </c>
       <c r="S14" s="31"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="70"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -24855,7 +24871,7 @@
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="61"/>
       <c r="K15" s="61"/>
       <c r="L15" s="61"/>
@@ -24865,7 +24881,7 @@
       <c r="P15" s="61"/>
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="70"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -24882,7 +24898,7 @@
       <c r="H16" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="76" t="s">
         <v>2199</v>
       </c>
       <c r="J16" s="62" t="s">
@@ -24909,7 +24925,7 @@
       </c>
       <c r="R16" s="62"/>
       <c r="S16" s="19"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="70"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -24931,7 +24947,7 @@
       <c r="H17" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="74" t="s">
         <v>1942</v>
       </c>
       <c r="J17" s="63" t="s">
@@ -24962,7 +24978,7 @@
         <v>23</v>
       </c>
       <c r="S17" s="21"/>
-      <c r="V17" s="71"/>
+      <c r="V17" s="70"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
@@ -24979,7 +24995,7 @@
       <c r="H18" s="64" t="s">
         <v>2198</v>
       </c>
-      <c r="I18" s="64" t="s">
+      <c r="I18" s="77" t="s">
         <v>2200</v>
       </c>
       <c r="J18" s="64" t="s">
@@ -25006,7 +25022,7 @@
       </c>
       <c r="R18" s="64"/>
       <c r="S18" s="31"/>
-      <c r="V18" s="71"/>
+      <c r="V18" s="70"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -25026,7 +25042,7 @@
       <c r="P19" s="61"/>
       <c r="Q19" s="61"/>
       <c r="R19" s="61"/>
-      <c r="V19" s="71"/>
+      <c r="V19" s="70"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -25072,7 +25088,7 @@
         <v>1669</v>
       </c>
       <c r="S20" s="19"/>
-      <c r="V20" s="71"/>
+      <c r="V20" s="70"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -25125,7 +25141,7 @@
         <v>1947</v>
       </c>
       <c r="S21" s="21"/>
-      <c r="V21" s="71"/>
+      <c r="V21" s="70"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -25171,7 +25187,7 @@
         <v>1637</v>
       </c>
       <c r="S22" s="31"/>
-      <c r="V22" s="71"/>
+      <c r="V22" s="70"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -25191,7 +25207,7 @@
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
       <c r="R23" s="61"/>
-      <c r="V23" s="71"/>
+      <c r="V23" s="70"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
@@ -25227,7 +25243,7 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="S24" s="19"/>
-      <c r="V24" s="71"/>
+      <c r="V24" s="70"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="20">
@@ -25276,7 +25292,7 @@
       <c r="Q25" s="63"/>
       <c r="R25" s="63"/>
       <c r="S25" s="21"/>
-      <c r="V25" s="71"/>
+      <c r="V25" s="70"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
@@ -25312,7 +25328,7 @@
       <c r="Q26" s="64"/>
       <c r="R26" s="64"/>
       <c r="S26" s="31"/>
-      <c r="V26" s="71"/>
+      <c r="V26" s="70"/>
     </row>
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -25336,7 +25352,7 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="71"/>
+      <c r="V27" s="70"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -25388,7 +25404,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="71"/>
+      <c r="V28" s="70"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="20">
@@ -25445,7 +25461,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="71"/>
+      <c r="V29" s="70"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
@@ -25497,7 +25513,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="71"/>
+      <c r="V30" s="70"/>
     </row>
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -25521,7 +25537,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="71"/>
+      <c r="V31" s="70"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -25569,7 +25585,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="71"/>
+      <c r="V32" s="70"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="20">
@@ -25622,7 +25638,7 @@
         <v>93</v>
       </c>
       <c r="S33" s="21"/>
-      <c r="V33" s="71"/>
+      <c r="V33" s="70"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
@@ -25666,7 +25682,7 @@
         <v>2224</v>
       </c>
       <c r="S34" s="31"/>
-      <c r="V34" s="71"/>
+      <c r="V34" s="70"/>
     </row>
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -25686,7 +25702,7 @@
       <c r="P35" s="61"/>
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
-      <c r="V35" s="71"/>
+      <c r="V35" s="70"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -25730,7 +25746,7 @@
         <v>480</v>
       </c>
       <c r="S36" s="19"/>
-      <c r="V36" s="71"/>
+      <c r="V36" s="70"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="20">
@@ -25783,7 +25799,7 @@
         <v>291</v>
       </c>
       <c r="S37" s="21"/>
-      <c r="V37" s="71"/>
+      <c r="V37" s="70"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
@@ -25827,7 +25843,7 @@
         <v>480</v>
       </c>
       <c r="S38" s="31"/>
-      <c r="V38" s="71"/>
+      <c r="V38" s="70"/>
     </row>
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -25847,7 +25863,7 @@
       <c r="P39" s="61"/>
       <c r="Q39" s="61"/>
       <c r="R39" s="61"/>
-      <c r="V39" s="71"/>
+      <c r="V39" s="70"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -25891,7 +25907,7 @@
       </c>
       <c r="R40" s="62"/>
       <c r="S40" s="19"/>
-      <c r="V40" s="71"/>
+      <c r="V40" s="70"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="20">
@@ -25944,7 +25960,7 @@
         <v>103</v>
       </c>
       <c r="S41" s="21"/>
-      <c r="V41" s="71"/>
+      <c r="V41" s="70"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
@@ -25988,7 +26004,7 @@
       </c>
       <c r="R42" s="64"/>
       <c r="S42" s="31"/>
-      <c r="V42" s="71"/>
+      <c r="V42" s="70"/>
     </row>
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -26008,7 +26024,7 @@
       <c r="P43" s="61"/>
       <c r="Q43" s="61"/>
       <c r="R43" s="61"/>
-      <c r="V43" s="71"/>
+      <c r="V43" s="70"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -26054,7 +26070,7 @@
         <v>2234</v>
       </c>
       <c r="S44" s="19"/>
-      <c r="V44" s="71"/>
+      <c r="V44" s="70"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="20">
@@ -26107,7 +26123,7 @@
         <v>1955</v>
       </c>
       <c r="S45" s="21"/>
-      <c r="V45" s="71"/>
+      <c r="V45" s="70"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
@@ -26153,7 +26169,7 @@
         <v>2235</v>
       </c>
       <c r="S46" s="31"/>
-      <c r="V46" s="71"/>
+      <c r="V46" s="70"/>
     </row>
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -26173,7 +26189,7 @@
       <c r="P47" s="61"/>
       <c r="Q47" s="61"/>
       <c r="R47" s="61"/>
-      <c r="V47" s="71"/>
+      <c r="V47" s="70"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -26219,7 +26235,7 @@
         <v>1354</v>
       </c>
       <c r="S48" s="19"/>
-      <c r="V48" s="71"/>
+      <c r="V48" s="70"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="20">
@@ -26272,7 +26288,7 @@
         <v>1575</v>
       </c>
       <c r="S49" s="21"/>
-      <c r="V49" s="71"/>
+      <c r="V49" s="70"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
@@ -26318,7 +26334,7 @@
         <v>2231</v>
       </c>
       <c r="S50" s="31"/>
-      <c r="V50" s="71"/>
+      <c r="V50" s="70"/>
     </row>
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -26338,7 +26354,7 @@
       <c r="P51" s="61"/>
       <c r="Q51" s="61"/>
       <c r="R51" s="61"/>
-      <c r="V51" s="71"/>
+      <c r="V51" s="70"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -26382,7 +26398,7 @@
       </c>
       <c r="R52" s="62"/>
       <c r="S52" s="19"/>
-      <c r="V52" s="71"/>
+      <c r="V52" s="70"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="20">
@@ -26435,7 +26451,7 @@
         <v>23</v>
       </c>
       <c r="S53" s="21"/>
-      <c r="V53" s="71"/>
+      <c r="V53" s="70"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
@@ -26479,7 +26495,7 @@
       </c>
       <c r="R54" s="64"/>
       <c r="S54" s="31"/>
-      <c r="V54" s="71"/>
+      <c r="V54" s="70"/>
     </row>
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -26499,7 +26515,7 @@
       <c r="P55" s="61"/>
       <c r="Q55" s="61"/>
       <c r="R55" s="61"/>
-      <c r="V55" s="71"/>
+      <c r="V55" s="70"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -26545,7 +26561,7 @@
         <v>413</v>
       </c>
       <c r="S56" s="19"/>
-      <c r="V56" s="71"/>
+      <c r="V56" s="70"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="20">
@@ -26598,7 +26614,7 @@
         <v>200</v>
       </c>
       <c r="S57" s="21"/>
-      <c r="V57" s="71"/>
+      <c r="V57" s="70"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
@@ -26644,7 +26660,7 @@
         <v>2225</v>
       </c>
       <c r="S58" s="31"/>
-      <c r="V58" s="71"/>
+      <c r="V58" s="70"/>
     </row>
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -26664,7 +26680,7 @@
       <c r="P59" s="61"/>
       <c r="Q59" s="61"/>
       <c r="R59" s="61"/>
-      <c r="V59" s="71"/>
+      <c r="V59" s="70"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -26712,7 +26728,7 @@
         <v>63</v>
       </c>
       <c r="S60" s="19"/>
-      <c r="V60" s="71"/>
+      <c r="V60" s="70"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="20">
@@ -26765,7 +26781,7 @@
         <v>37</v>
       </c>
       <c r="S61" s="21"/>
-      <c r="V61" s="71"/>
+      <c r="V61" s="70"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
@@ -26813,7 +26829,7 @@
         <v>2239</v>
       </c>
       <c r="S62" s="31"/>
-      <c r="V62" s="71"/>
+      <c r="V62" s="70"/>
     </row>
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -26833,7 +26849,7 @@
       <c r="P63" s="61"/>
       <c r="Q63" s="61"/>
       <c r="R63" s="61"/>
-      <c r="V63" s="71"/>
+      <c r="V63" s="70"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -26879,7 +26895,7 @@
         <v>2210</v>
       </c>
       <c r="S64" s="19"/>
-      <c r="V64" s="71"/>
+      <c r="V64" s="70"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="20">
@@ -26932,7 +26948,7 @@
         <v>1946</v>
       </c>
       <c r="S65" s="21"/>
-      <c r="V65" s="71"/>
+      <c r="V65" s="70"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
@@ -26978,7 +26994,7 @@
         <v>2211</v>
       </c>
       <c r="S66" s="31"/>
-      <c r="V66" s="71"/>
+      <c r="V66" s="70"/>
     </row>
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -26998,7 +27014,7 @@
       <c r="P67" s="61"/>
       <c r="Q67" s="61"/>
       <c r="R67" s="61"/>
-      <c r="V67" s="71"/>
+      <c r="V67" s="70"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -27044,7 +27060,7 @@
         <v>404</v>
       </c>
       <c r="S68" s="19"/>
-      <c r="V68" s="71"/>
+      <c r="V68" s="70"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="20">
@@ -27097,7 +27113,7 @@
         <v>190</v>
       </c>
       <c r="S69" s="21"/>
-      <c r="V69" s="71"/>
+      <c r="V69" s="70"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
@@ -27143,7 +27159,7 @@
         <v>420</v>
       </c>
       <c r="S70" s="31"/>
-      <c r="V70" s="71"/>
+      <c r="V70" s="70"/>
     </row>
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -27163,7 +27179,7 @@
       <c r="P71" s="61"/>
       <c r="Q71" s="61"/>
       <c r="R71" s="61"/>
-      <c r="V71" s="71"/>
+      <c r="V71" s="70"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -27207,7 +27223,7 @@
         <v>1624</v>
       </c>
       <c r="S72" s="19"/>
-      <c r="V72" s="71"/>
+      <c r="V72" s="70"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="20">
@@ -27260,7 +27276,7 @@
         <v>1959</v>
       </c>
       <c r="S73" s="21"/>
-      <c r="V73" s="71"/>
+      <c r="V73" s="70"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
@@ -27304,7 +27320,7 @@
         <v>2247</v>
       </c>
       <c r="S74" s="31"/>
-      <c r="V74" s="71"/>
+      <c r="V74" s="70"/>
     </row>
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -27324,7 +27340,7 @@
       <c r="P75" s="61"/>
       <c r="Q75" s="61"/>
       <c r="R75" s="61"/>
-      <c r="V75" s="71"/>
+      <c r="V75" s="70"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -27352,7 +27368,7 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="S76" s="19"/>
-      <c r="V76" s="71"/>
+      <c r="V76" s="70"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="20">
@@ -27389,7 +27405,7 @@
       <c r="Q77" s="63"/>
       <c r="R77" s="63"/>
       <c r="S77" s="21"/>
-      <c r="V77" s="71"/>
+      <c r="V77" s="70"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
@@ -27417,7 +27433,7 @@
       <c r="Q78" s="64"/>
       <c r="R78" s="64"/>
       <c r="S78" s="31"/>
-      <c r="V78" s="71"/>
+      <c r="V78" s="70"/>
     </row>
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -27437,7 +27453,7 @@
       <c r="P79" s="61"/>
       <c r="Q79" s="61"/>
       <c r="R79" s="61"/>
-      <c r="V79" s="71"/>
+      <c r="V79" s="70"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -27483,7 +27499,7 @@
         <v>2250</v>
       </c>
       <c r="S80" s="19"/>
-      <c r="V80" s="71"/>
+      <c r="V80" s="70"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="20">
@@ -27536,7 +27552,7 @@
         <v>1963</v>
       </c>
       <c r="S81" s="21"/>
-      <c r="V81" s="71"/>
+      <c r="V81" s="70"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
@@ -27582,7 +27598,7 @@
         <v>2251</v>
       </c>
       <c r="S82" s="31"/>
-      <c r="V82" s="72"/>
+      <c r="V82" s="71"/>
     </row>
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -51863,8 +51879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084927E-9F50-4B36-82D0-DF33C1967E65}">
   <dimension ref="A1:D508"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -55184,7 +55200,7 @@
         <v>499</v>
       </c>
       <c r="D237" t="s">
-        <v>2655</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -55198,7 +55214,7 @@
         <v>499</v>
       </c>
       <c r="D238" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -55212,7 +55228,7 @@
         <v>499</v>
       </c>
       <c r="D239" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -55226,7 +55242,7 @@
         <v>499</v>
       </c>
       <c r="D240" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -55240,7 +55256,7 @@
         <v>499</v>
       </c>
       <c r="D241" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -55254,7 +55270,7 @@
         <v>499</v>
       </c>
       <c r="D242" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -55268,7 +55284,7 @@
         <v>499</v>
       </c>
       <c r="D243" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -55282,7 +55298,7 @@
         <v>499</v>
       </c>
       <c r="D244" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -55296,7 +55312,7 @@
         <v>499</v>
       </c>
       <c r="D245" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -55310,7 +55326,7 @@
         <v>499</v>
       </c>
       <c r="D246" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -55324,7 +55340,7 @@
         <v>499</v>
       </c>
       <c r="D247" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -55338,7 +55354,7 @@
         <v>499</v>
       </c>
       <c r="D248" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -55352,7 +55368,7 @@
         <v>499</v>
       </c>
       <c r="D249" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -55366,7 +55382,7 @@
         <v>499</v>
       </c>
       <c r="D250" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -55380,7 +55396,7 @@
         <v>499</v>
       </c>
       <c r="D251" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -55394,7 +55410,7 @@
         <v>499</v>
       </c>
       <c r="D252" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -55408,7 +55424,7 @@
         <v>499</v>
       </c>
       <c r="D253" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -55422,7 +55438,7 @@
         <v>499</v>
       </c>
       <c r="D254" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -55436,7 +55452,7 @@
         <v>499</v>
       </c>
       <c r="D255" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -55450,7 +55466,7 @@
         <v>499</v>
       </c>
       <c r="D256" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -55464,7 +55480,7 @@
         <v>499</v>
       </c>
       <c r="D257" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -55492,7 +55508,7 @@
         <v>499</v>
       </c>
       <c r="D259" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -55506,7 +55522,7 @@
         <v>499</v>
       </c>
       <c r="D260" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -55520,7 +55536,7 @@
         <v>499</v>
       </c>
       <c r="D261" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -55534,7 +55550,7 @@
         <v>499</v>
       </c>
       <c r="D262" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -55548,7 +55564,7 @@
         <v>499</v>
       </c>
       <c r="D263" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -55562,7 +55578,7 @@
         <v>499</v>
       </c>
       <c r="D264" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -55576,7 +55592,7 @@
         <v>499</v>
       </c>
       <c r="D265" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -55604,7 +55620,7 @@
         <v>499</v>
       </c>
       <c r="D267" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -55618,7 +55634,7 @@
         <v>499</v>
       </c>
       <c r="D268" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -55632,7 +55648,7 @@
         <v>499</v>
       </c>
       <c r="D269" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -55646,7 +55662,7 @@
         <v>499</v>
       </c>
       <c r="D270" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -55660,7 +55676,7 @@
         <v>499</v>
       </c>
       <c r="D271" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -55674,7 +55690,7 @@
         <v>499</v>
       </c>
       <c r="D272" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -55688,7 +55704,7 @@
         <v>499</v>
       </c>
       <c r="D273" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -55758,7 +55774,7 @@
         <v>499</v>
       </c>
       <c r="D278" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -55772,7 +55788,7 @@
         <v>499</v>
       </c>
       <c r="D279" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -55786,7 +55802,7 @@
         <v>499</v>
       </c>
       <c r="D280" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -55828,7 +55844,7 @@
         <v>499</v>
       </c>
       <c r="D283" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -55842,7 +55858,7 @@
         <v>499</v>
       </c>
       <c r="D284" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -55856,7 +55872,7 @@
         <v>499</v>
       </c>
       <c r="D285" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -55870,7 +55886,7 @@
         <v>499</v>
       </c>
       <c r="D286" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -55884,7 +55900,7 @@
         <v>499</v>
       </c>
       <c r="D287" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -55933,14 +55949,14 @@
       <c r="A291" t="s">
         <v>1984</v>
       </c>
-      <c r="B291" s="69">
+      <c r="B291" s="78">
         <v>46180</v>
       </c>
       <c r="C291" t="s">
         <v>499</v>
       </c>
       <c r="D291" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -55954,7 +55970,7 @@
         <v>499</v>
       </c>
       <c r="D292" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -55968,7 +55984,7 @@
         <v>499</v>
       </c>
       <c r="D293" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -55996,7 +56012,7 @@
         <v>499</v>
       </c>
       <c r="D295" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -56010,7 +56026,7 @@
         <v>499</v>
       </c>
       <c r="D296" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -56024,7 +56040,7 @@
         <v>499</v>
       </c>
       <c r="D297" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -56052,7 +56068,7 @@
         <v>499</v>
       </c>
       <c r="D299" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -56066,7 +56082,7 @@
         <v>499</v>
       </c>
       <c r="D300" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -56080,7 +56096,7 @@
         <v>499</v>
       </c>
       <c r="D301" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -56094,7 +56110,7 @@
         <v>499</v>
       </c>
       <c r="D302" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -56108,7 +56124,7 @@
         <v>499</v>
       </c>
       <c r="D303" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -56122,7 +56138,7 @@
         <v>499</v>
       </c>
       <c r="D304" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -56136,7 +56152,7 @@
         <v>499</v>
       </c>
       <c r="D305" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -56150,7 +56166,7 @@
         <v>499</v>
       </c>
       <c r="D306" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -56164,7 +56180,7 @@
         <v>499</v>
       </c>
       <c r="D307" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -56178,7 +56194,7 @@
         <v>499</v>
       </c>
       <c r="D308" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -56192,7 +56208,7 @@
         <v>499</v>
       </c>
       <c r="D309" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -56206,7 +56222,7 @@
         <v>499</v>
       </c>
       <c r="D310" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -56234,7 +56250,7 @@
         <v>499</v>
       </c>
       <c r="D312" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -56248,7 +56264,7 @@
         <v>499</v>
       </c>
       <c r="D313" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -56262,7 +56278,7 @@
         <v>499</v>
       </c>
       <c r="D314" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -56276,7 +56292,7 @@
         <v>499</v>
       </c>
       <c r="D315" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -56290,7 +56306,7 @@
         <v>499</v>
       </c>
       <c r="D316" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -56304,7 +56320,7 @@
         <v>499</v>
       </c>
       <c r="D317" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -56318,7 +56334,7 @@
         <v>499</v>
       </c>
       <c r="D318" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -56332,7 +56348,7 @@
         <v>499</v>
       </c>
       <c r="D319" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -56346,7 +56362,7 @@
         <v>499</v>
       </c>
       <c r="D320" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -56360,7 +56376,7 @@
         <v>499</v>
       </c>
       <c r="D321" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -56374,7 +56390,7 @@
         <v>499</v>
       </c>
       <c r="D322" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -56402,7 +56418,7 @@
         <v>499</v>
       </c>
       <c r="D324" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -56416,7 +56432,7 @@
         <v>499</v>
       </c>
       <c r="D325" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -56430,7 +56446,7 @@
         <v>499</v>
       </c>
       <c r="D326" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -56444,7 +56460,7 @@
         <v>499</v>
       </c>
       <c r="D327" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -56458,7 +56474,7 @@
         <v>499</v>
       </c>
       <c r="D328" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -56472,7 +56488,7 @@
         <v>499</v>
       </c>
       <c r="D329" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -56486,7 +56502,7 @@
         <v>499</v>
       </c>
       <c r="D330" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -56500,7 +56516,7 @@
         <v>499</v>
       </c>
       <c r="D331" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -56514,7 +56530,7 @@
         <v>499</v>
       </c>
       <c r="D332" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -56528,7 +56544,7 @@
         <v>499</v>
       </c>
       <c r="D333" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -56542,7 +56558,7 @@
         <v>499</v>
       </c>
       <c r="D334" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -56556,7 +56572,7 @@
         <v>499</v>
       </c>
       <c r="D335" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -56570,7 +56586,7 @@
         <v>499</v>
       </c>
       <c r="D336" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -56584,7 +56600,7 @@
         <v>499</v>
       </c>
       <c r="D337" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -56598,7 +56614,7 @@
         <v>499</v>
       </c>
       <c r="D338" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -56612,7 +56628,7 @@
         <v>499</v>
       </c>
       <c r="D339" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -56626,7 +56642,7 @@
         <v>499</v>
       </c>
       <c r="D340" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -56640,7 +56656,7 @@
         <v>499</v>
       </c>
       <c r="D341" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -56654,7 +56670,7 @@
         <v>499</v>
       </c>
       <c r="D342" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -56668,7 +56684,7 @@
         <v>499</v>
       </c>
       <c r="D343" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -56682,7 +56698,7 @@
         <v>499</v>
       </c>
       <c r="D344" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -56696,7 +56712,7 @@
         <v>499</v>
       </c>
       <c r="D345" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -56710,7 +56726,7 @@
         <v>499</v>
       </c>
       <c r="D346" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -56724,7 +56740,7 @@
         <v>499</v>
       </c>
       <c r="D347" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -56738,7 +56754,7 @@
         <v>499</v>
       </c>
       <c r="D348" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -56752,7 +56768,7 @@
         <v>499</v>
       </c>
       <c r="D349" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -56766,7 +56782,7 @@
         <v>499</v>
       </c>
       <c r="D350" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -56780,7 +56796,7 @@
         <v>499</v>
       </c>
       <c r="D351" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -56794,7 +56810,7 @@
         <v>499</v>
       </c>
       <c r="D352" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -56808,7 +56824,7 @@
         <v>499</v>
       </c>
       <c r="D353" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -56822,7 +56838,7 @@
         <v>499</v>
       </c>
       <c r="D354" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -56836,7 +56852,7 @@
         <v>499</v>
       </c>
       <c r="D355" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -56850,7 +56866,7 @@
         <v>499</v>
       </c>
       <c r="D356" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -56864,7 +56880,7 @@
         <v>499</v>
       </c>
       <c r="D357" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -56878,7 +56894,7 @@
         <v>499</v>
       </c>
       <c r="D358" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -56892,7 +56908,7 @@
         <v>499</v>
       </c>
       <c r="D359" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -56906,7 +56922,7 @@
         <v>499</v>
       </c>
       <c r="D360" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -56920,7 +56936,7 @@
         <v>499</v>
       </c>
       <c r="D361" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -56934,7 +56950,7 @@
         <v>499</v>
       </c>
       <c r="D362" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -56948,7 +56964,7 @@
         <v>499</v>
       </c>
       <c r="D363" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -56962,7 +56978,7 @@
         <v>499</v>
       </c>
       <c r="D364" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -56976,7 +56992,7 @@
         <v>499</v>
       </c>
       <c r="D365" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -56990,7 +57006,7 @@
         <v>499</v>
       </c>
       <c r="D366" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -57004,7 +57020,7 @@
         <v>499</v>
       </c>
       <c r="D367" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -57018,7 +57034,7 @@
         <v>499</v>
       </c>
       <c r="D368" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -57032,7 +57048,7 @@
         <v>499</v>
       </c>
       <c r="D369" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -57046,7 +57062,7 @@
         <v>499</v>
       </c>
       <c r="D370" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -57060,7 +57076,7 @@
         <v>499</v>
       </c>
       <c r="D371" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -57074,7 +57090,7 @@
         <v>499</v>
       </c>
       <c r="D372" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -57088,7 +57104,7 @@
         <v>499</v>
       </c>
       <c r="D373" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -57102,7 +57118,7 @@
         <v>499</v>
       </c>
       <c r="D374" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -57116,7 +57132,7 @@
         <v>499</v>
       </c>
       <c r="D375" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -57130,7 +57146,7 @@
         <v>499</v>
       </c>
       <c r="D376" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -57144,7 +57160,7 @@
         <v>499</v>
       </c>
       <c r="D377" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -57158,7 +57174,7 @@
         <v>499</v>
       </c>
       <c r="D378" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -57172,7 +57188,7 @@
         <v>499</v>
       </c>
       <c r="D379" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -57186,7 +57202,7 @@
         <v>499</v>
       </c>
       <c r="D380" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -57200,7 +57216,7 @@
         <v>499</v>
       </c>
       <c r="D381" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -57214,7 +57230,7 @@
         <v>499</v>
       </c>
       <c r="D382" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -57228,7 +57244,7 @@
         <v>499</v>
       </c>
       <c r="D383" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -57242,7 +57258,7 @@
         <v>499</v>
       </c>
       <c r="D384" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -57256,7 +57272,7 @@
         <v>499</v>
       </c>
       <c r="D385" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -57270,7 +57286,7 @@
         <v>499</v>
       </c>
       <c r="D386" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -57284,7 +57300,7 @@
         <v>499</v>
       </c>
       <c r="D387" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -57298,7 +57314,7 @@
         <v>499</v>
       </c>
       <c r="D388" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -57312,7 +57328,7 @@
         <v>499</v>
       </c>
       <c r="D389" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -57326,7 +57342,7 @@
         <v>499</v>
       </c>
       <c r="D390" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -57340,7 +57356,7 @@
         <v>499</v>
       </c>
       <c r="D391" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -57354,7 +57370,7 @@
         <v>499</v>
       </c>
       <c r="D392" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -57368,7 +57384,7 @@
         <v>499</v>
       </c>
       <c r="D393" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -57382,7 +57398,7 @@
         <v>499</v>
       </c>
       <c r="D394" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -57396,7 +57412,7 @@
         <v>499</v>
       </c>
       <c r="D395" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -57410,7 +57426,7 @@
         <v>499</v>
       </c>
       <c r="D396" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -57424,7 +57440,7 @@
         <v>499</v>
       </c>
       <c r="D397" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -57438,7 +57454,7 @@
         <v>499</v>
       </c>
       <c r="D398" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -57452,7 +57468,7 @@
         <v>499</v>
       </c>
       <c r="D399" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -57466,7 +57482,7 @@
         <v>499</v>
       </c>
       <c r="D400" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -57480,7 +57496,7 @@
         <v>499</v>
       </c>
       <c r="D401" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -57494,7 +57510,7 @@
         <v>499</v>
       </c>
       <c r="D402" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -57508,7 +57524,7 @@
         <v>499</v>
       </c>
       <c r="D403" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -57522,7 +57538,7 @@
         <v>499</v>
       </c>
       <c r="D404" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -57536,7 +57552,7 @@
         <v>499</v>
       </c>
       <c r="D405" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -57550,7 +57566,7 @@
         <v>499</v>
       </c>
       <c r="D406" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -57564,7 +57580,7 @@
         <v>499</v>
       </c>
       <c r="D407" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -57578,7 +57594,7 @@
         <v>499</v>
       </c>
       <c r="D408" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -57592,7 +57608,7 @@
         <v>499</v>
       </c>
       <c r="D409" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -57606,7 +57622,7 @@
         <v>499</v>
       </c>
       <c r="D410" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -57620,7 +57636,7 @@
         <v>499</v>
       </c>
       <c r="D411" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -57634,7 +57650,7 @@
         <v>499</v>
       </c>
       <c r="D412" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -57648,7 +57664,7 @@
         <v>499</v>
       </c>
       <c r="D413" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -57662,7 +57678,7 @@
         <v>499</v>
       </c>
       <c r="D414" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -57676,7 +57692,7 @@
         <v>499</v>
       </c>
       <c r="D415" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -57690,7 +57706,7 @@
         <v>499</v>
       </c>
       <c r="D416" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -57704,7 +57720,7 @@
         <v>499</v>
       </c>
       <c r="D417" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -57718,7 +57734,7 @@
         <v>499</v>
       </c>
       <c r="D418" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -57732,7 +57748,7 @@
         <v>499</v>
       </c>
       <c r="D419" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -57746,7 +57762,7 @@
         <v>499</v>
       </c>
       <c r="D420" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -57760,7 +57776,7 @@
         <v>499</v>
       </c>
       <c r="D421" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -57774,7 +57790,7 @@
         <v>499</v>
       </c>
       <c r="D422" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -57788,7 +57804,7 @@
         <v>499</v>
       </c>
       <c r="D423" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -57802,7 +57818,7 @@
         <v>499</v>
       </c>
       <c r="D424" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -57816,7 +57832,7 @@
         <v>499</v>
       </c>
       <c r="D425" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -57830,7 +57846,7 @@
         <v>499</v>
       </c>
       <c r="D426" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -57844,7 +57860,7 @@
         <v>499</v>
       </c>
       <c r="D427" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -57858,7 +57874,7 @@
         <v>499</v>
       </c>
       <c r="D428" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -57872,7 +57888,7 @@
         <v>499</v>
       </c>
       <c r="D429" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -57886,7 +57902,7 @@
         <v>499</v>
       </c>
       <c r="D430" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -57900,7 +57916,7 @@
         <v>499</v>
       </c>
       <c r="D431" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -57914,7 +57930,7 @@
         <v>499</v>
       </c>
       <c r="D432" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -57928,7 +57944,7 @@
         <v>499</v>
       </c>
       <c r="D433" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -57942,7 +57958,7 @@
         <v>499</v>
       </c>
       <c r="D434" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -57956,7 +57972,7 @@
         <v>499</v>
       </c>
       <c r="D435" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -57970,7 +57986,7 @@
         <v>499</v>
       </c>
       <c r="D436" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -57984,7 +58000,7 @@
         <v>499</v>
       </c>
       <c r="D437" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -57998,7 +58014,7 @@
         <v>499</v>
       </c>
       <c r="D438" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -58012,7 +58028,7 @@
         <v>499</v>
       </c>
       <c r="D439" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -58026,7 +58042,7 @@
         <v>499</v>
       </c>
       <c r="D440" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -58040,7 +58056,7 @@
         <v>499</v>
       </c>
       <c r="D441" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -58054,7 +58070,7 @@
         <v>499</v>
       </c>
       <c r="D442" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -58068,7 +58084,7 @@
         <v>499</v>
       </c>
       <c r="D443" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -58082,7 +58098,7 @@
         <v>499</v>
       </c>
       <c r="D444" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -58096,7 +58112,7 @@
         <v>499</v>
       </c>
       <c r="D445" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -58110,7 +58126,7 @@
         <v>499</v>
       </c>
       <c r="D446" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -58124,7 +58140,7 @@
         <v>499</v>
       </c>
       <c r="D447" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -58138,7 +58154,7 @@
         <v>499</v>
       </c>
       <c r="D448" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -58152,7 +58168,7 @@
         <v>499</v>
       </c>
       <c r="D449" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -58166,7 +58182,7 @@
         <v>499</v>
       </c>
       <c r="D450" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -58180,7 +58196,7 @@
         <v>499</v>
       </c>
       <c r="D451" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -58194,7 +58210,7 @@
         <v>499</v>
       </c>
       <c r="D452" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -58208,7 +58224,7 @@
         <v>499</v>
       </c>
       <c r="D453" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -58222,7 +58238,7 @@
         <v>499</v>
       </c>
       <c r="D454" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -58236,7 +58252,7 @@
         <v>499</v>
       </c>
       <c r="D455" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -58250,7 +58266,7 @@
         <v>499</v>
       </c>
       <c r="D456" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -58264,7 +58280,7 @@
         <v>499</v>
       </c>
       <c r="D457" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -58278,7 +58294,7 @@
         <v>499</v>
       </c>
       <c r="D458" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -58292,7 +58308,7 @@
         <v>499</v>
       </c>
       <c r="D459" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -58306,7 +58322,7 @@
         <v>499</v>
       </c>
       <c r="D460" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -58320,7 +58336,7 @@
         <v>499</v>
       </c>
       <c r="D461" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -58334,7 +58350,7 @@
         <v>499</v>
       </c>
       <c r="D462" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -58348,7 +58364,7 @@
         <v>499</v>
       </c>
       <c r="D463" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -58362,7 +58378,7 @@
         <v>499</v>
       </c>
       <c r="D464" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -58376,7 +58392,7 @@
         <v>499</v>
       </c>
       <c r="D465" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -58390,7 +58406,7 @@
         <v>499</v>
       </c>
       <c r="D466" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -58404,7 +58420,7 @@
         <v>499</v>
       </c>
       <c r="D467" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -58418,7 +58434,7 @@
         <v>499</v>
       </c>
       <c r="D468" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -58432,7 +58448,7 @@
         <v>499</v>
       </c>
       <c r="D469" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -58446,7 +58462,7 @@
         <v>499</v>
       </c>
       <c r="D470" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -58460,7 +58476,7 @@
         <v>499</v>
       </c>
       <c r="D471" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -58474,7 +58490,7 @@
         <v>499</v>
       </c>
       <c r="D472" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -58488,7 +58504,7 @@
         <v>499</v>
       </c>
       <c r="D473" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -58502,7 +58518,7 @@
         <v>499</v>
       </c>
       <c r="D474" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -58516,7 +58532,7 @@
         <v>499</v>
       </c>
       <c r="D475" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -58530,7 +58546,7 @@
         <v>499</v>
       </c>
       <c r="D476" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -58544,7 +58560,7 @@
         <v>499</v>
       </c>
       <c r="D477" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -58558,7 +58574,7 @@
         <v>499</v>
       </c>
       <c r="D478" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -58572,7 +58588,7 @@
         <v>499</v>
       </c>
       <c r="D479" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -58586,7 +58602,7 @@
         <v>499</v>
       </c>
       <c r="D480" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -58600,7 +58616,7 @@
         <v>499</v>
       </c>
       <c r="D481" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -58614,7 +58630,7 @@
         <v>499</v>
       </c>
       <c r="D482" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -58628,7 +58644,7 @@
         <v>499</v>
       </c>
       <c r="D483" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -58642,7 +58658,7 @@
         <v>499</v>
       </c>
       <c r="D484" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -58656,7 +58672,7 @@
         <v>499</v>
       </c>
       <c r="D485" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -58670,7 +58686,7 @@
         <v>499</v>
       </c>
       <c r="D486" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -58684,7 +58700,7 @@
         <v>499</v>
       </c>
       <c r="D487" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -58698,7 +58714,7 @@
         <v>499</v>
       </c>
       <c r="D488" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -58712,7 +58728,7 @@
         <v>499</v>
       </c>
       <c r="D489" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -58726,7 +58742,7 @@
         <v>499</v>
       </c>
       <c r="D490" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -58740,7 +58756,7 @@
         <v>499</v>
       </c>
       <c r="D491" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -58754,7 +58770,7 @@
         <v>499</v>
       </c>
       <c r="D492" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -58768,7 +58784,7 @@
         <v>499</v>
       </c>
       <c r="D493" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -58782,7 +58798,7 @@
         <v>499</v>
       </c>
       <c r="D494" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -58796,7 +58812,7 @@
         <v>499</v>
       </c>
       <c r="D495" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -58810,7 +58826,7 @@
         <v>499</v>
       </c>
       <c r="D496" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -58824,7 +58840,7 @@
         <v>499</v>
       </c>
       <c r="D497" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -58838,7 +58854,7 @@
         <v>499</v>
       </c>
       <c r="D498" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -58852,7 +58868,7 @@
         <v>499</v>
       </c>
       <c r="D499" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -58866,7 +58882,7 @@
         <v>499</v>
       </c>
       <c r="D500" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -58880,7 +58896,7 @@
         <v>499</v>
       </c>
       <c r="D501" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -58894,7 +58910,7 @@
         <v>499</v>
       </c>
       <c r="D502" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -58908,7 +58924,7 @@
         <v>499</v>
       </c>
       <c r="D503" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -58922,7 +58938,7 @@
         <v>499</v>
       </c>
       <c r="D504" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -58936,7 +58952,7 @@
         <v>499</v>
       </c>
       <c r="D505" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -58950,7 +58966,7 @@
         <v>499</v>
       </c>
       <c r="D506" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -58964,7 +58980,7 @@
         <v>499</v>
       </c>
       <c r="D507" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -58978,7 +58994,7 @@
         <v>499</v>
       </c>
       <c r="D508" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
     </row>
   </sheetData>
@@ -59020,7 +59036,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -59034,7 +59050,7 @@
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -59048,7 +59064,7 @@
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -59062,7 +59078,7 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -59076,7 +59092,7 @@
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -59090,7 +59106,7 @@
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -59104,7 +59120,7 @@
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -59118,7 +59134,7 @@
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -59132,7 +59148,7 @@
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -59146,7 +59162,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -59160,7 +59176,7 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -59174,7 +59190,7 @@
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -59188,7 +59204,7 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -59202,7 +59218,7 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -59216,7 +59232,7 @@
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -59230,7 +59246,7 @@
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -59244,7 +59260,7 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
   </sheetData>
@@ -59254,6 +59270,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC36DD5-0F11-4DC1-8259-F26366C2D232}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B336613A-C3B2-492B-89D1-4E7C44615C9B}">
   <dimension ref="A1:U226"/>
   <sheetViews>
@@ -63111,7 +63185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A824CC4-11BB-497F-B76E-2482C71A1B94}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
@@ -66180,50 +66254,6 @@
       </c>
       <c r="Q180" t="s">
         <v>499</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC36DD5-0F11-4DC1-8259-F26366C2D232}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1862</v>
       </c>
     </row>
   </sheetData>
@@ -66385,7 +66415,7 @@
         <v>62</v>
       </c>
       <c r="T3" s="16"/>
-      <c r="V3" s="70" t="s">
+      <c r="V3" s="69" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -66433,7 +66463,7 @@
         <v>62</v>
       </c>
       <c r="S4" s="19"/>
-      <c r="V4" s="71"/>
+      <c r="V4" s="70"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="20">
@@ -66485,7 +66515,7 @@
         <v>291</v>
       </c>
       <c r="S5" s="21"/>
-      <c r="V5" s="71"/>
+      <c r="V5" s="70"/>
     </row>
     <row r="6" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="22"/>
@@ -66532,7 +66562,7 @@
         <v>62</v>
       </c>
       <c r="S6" s="25"/>
-      <c r="V6" s="71"/>
+      <c r="V6" s="70"/>
     </row>
     <row r="7" spans="1:22" s="30" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="27"/>
@@ -66563,7 +66593,7 @@
       <c r="Q7" s="55"/>
       <c r="R7" s="55"/>
       <c r="S7" s="29"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="70"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -66607,7 +66637,7 @@
         <v>1227</v>
       </c>
       <c r="S8" s="19"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="70"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="20">
@@ -66661,7 +66691,7 @@
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="70"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
@@ -66705,7 +66735,7 @@
         <v>399</v>
       </c>
       <c r="S10" s="31"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="70"/>
     </row>
     <row r="11" spans="1:22" s="29" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="32"/>
@@ -66729,7 +66759,7 @@
       <c r="P11" s="55"/>
       <c r="Q11" s="55"/>
       <c r="R11" s="55"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="70"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -66759,7 +66789,7 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="19"/>
-      <c r="V12" s="71"/>
+      <c r="V12" s="70"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="20">
@@ -66798,7 +66828,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="21"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="70"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
@@ -66828,7 +66858,7 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="31"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="70"/>
     </row>
     <row r="15" spans="1:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -66848,7 +66878,7 @@
       <c r="P15" s="55"/>
       <c r="Q15" s="55"/>
       <c r="R15" s="55"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="70"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -66868,7 +66898,7 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="19"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="70"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="20">
@@ -66893,7 +66923,7 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="21"/>
-      <c r="V17" s="71"/>
+      <c r="V17" s="70"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
@@ -66913,7 +66943,7 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="31"/>
-      <c r="V18" s="71"/>
+      <c r="V18" s="70"/>
     </row>
     <row r="19" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -66955,7 +66985,7 @@
       <c r="R19" s="55" t="s">
         <v>1178</v>
       </c>
-      <c r="V19" s="71"/>
+      <c r="V19" s="70"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -67003,7 +67033,7 @@
         <v>1178</v>
       </c>
       <c r="S20" s="19"/>
-      <c r="V20" s="71"/>
+      <c r="V20" s="70"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="20">
@@ -67056,7 +67086,7 @@
         <v>185</v>
       </c>
       <c r="S21" s="21"/>
-      <c r="V21" s="71"/>
+      <c r="V21" s="70"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
@@ -67104,7 +67134,7 @@
         <v>1323</v>
       </c>
       <c r="S22" s="31"/>
-      <c r="V22" s="71"/>
+      <c r="V22" s="70"/>
     </row>
     <row r="23" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -67124,7 +67154,7 @@
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="55"/>
-      <c r="V23" s="71"/>
+      <c r="V23" s="70"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
@@ -67144,7 +67174,7 @@
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
       <c r="S24" s="19"/>
-      <c r="V24" s="71"/>
+      <c r="V24" s="70"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="20">
@@ -67171,7 +67201,7 @@
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
       <c r="S25" s="21"/>
-      <c r="V25" s="71"/>
+      <c r="V25" s="70"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
@@ -67191,7 +67221,7 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="31"/>
-      <c r="V26" s="71"/>
+      <c r="V26" s="70"/>
     </row>
     <row r="27" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
@@ -67215,7 +67245,7 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v/>
       </c>
-      <c r="V27" s="71"/>
+      <c r="V27" s="70"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
@@ -67239,7 +67269,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V28" s="71"/>
+      <c r="V28" s="70"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="20">
@@ -67268,7 +67298,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V29" s="71"/>
+      <c r="V29" s="70"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
@@ -67292,7 +67322,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V30" s="71"/>
+      <c r="V30" s="70"/>
     </row>
     <row r="31" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
@@ -67332,7 +67362,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V31" s="71"/>
+      <c r="V31" s="70"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
@@ -67382,7 +67412,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="V32" s="71"/>
+      <c r="V32" s="70"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="20">
@@ -67435,7 +67465,7 @@
         <v>164</v>
       </c>
       <c r="S33" s="21"/>
-      <c r="V33" s="71"/>
+      <c r="V33" s="70"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="22"/>
@@ -67481,7 +67511,7 @@
         <v>1320</v>
       </c>
       <c r="S34" s="31"/>
-      <c r="V34" s="71"/>
+      <c r="V34" s="70"/>
     </row>
     <row r="35" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
@@ -67507,7 +67537,7 @@
       <c r="P35" s="55"/>
       <c r="Q35" s="55"/>
       <c r="R35" s="55"/>
-      <c r="V35" s="71"/>
+      <c r="V35" s="70"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
@@ -67533,7 +67563,7 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="19"/>
-      <c r="V36" s="71"/>
+      <c r="V36" s="70"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="20">
@@ -67570,7 +67600,7 @@
       <c r="Q37" s="41"/>
       <c r="R37" s="41"/>
       <c r="S37" s="21"/>
-      <c r="V37" s="71"/>
+      <c r="V37" s="70"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
@@ -67596,7 +67626,7 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="31"/>
-      <c r="V38" s="71"/>
+      <c r="V38" s="70"/>
     </row>
     <row r="39" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
@@ -67616,7 +67646,7 @@
       <c r="P39" s="55"/>
       <c r="Q39" s="55"/>
       <c r="R39" s="55"/>
-      <c r="V39" s="71"/>
+      <c r="V39" s="70"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
@@ -67636,7 +67666,7 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
       <c r="S40" s="19"/>
-      <c r="V40" s="71"/>
+      <c r="V40" s="70"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="20">
@@ -67661,7 +67691,7 @@
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
       <c r="S41" s="21"/>
-      <c r="V41" s="71"/>
+      <c r="V41" s="70"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
@@ -67681,7 +67711,7 @@
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="31"/>
-      <c r="V42" s="71"/>
+      <c r="V42" s="70"/>
     </row>
     <row r="43" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
@@ -67709,7 +67739,7 @@
         <v>1302</v>
       </c>
       <c r="R43" s="55"/>
-      <c r="V43" s="71"/>
+      <c r="V43" s="70"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
@@ -67755,7 +67785,7 @@
         <v>1293</v>
       </c>
       <c r="S44" s="19"/>
-      <c r="V44" s="71"/>
+      <c r="V44" s="70"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="20">
@@ -67808,7 +67838,7 @@
         <v>1194</v>
       </c>
       <c r="S45" s="21"/>
-      <c r="V45" s="71"/>
+      <c r="V45" s="70"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
@@ -67854,7 +67884,7 @@
         <v>1369</v>
       </c>
       <c r="S46" s="31"/>
-      <c r="V46" s="71"/>
+      <c r="V46" s="70"/>
     </row>
     <row r="47" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
@@ -67880,7 +67910,7 @@
       <c r="P47" s="55"/>
       <c r="Q47" s="55"/>
       <c r="R47" s="55"/>
-      <c r="V47" s="71"/>
+      <c r="V47" s="70"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
@@ -67906,7 +67936,7 @@
       <c r="Q48" s="18"/>
       <c r="R48" s="18"/>
       <c r="S48" s="19"/>
-      <c r="V48" s="71"/>
+      <c r="V48" s="70"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="20">
@@ -67939,7 +67969,7 @@
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
       <c r="S49" s="21"/>
-      <c r="V49" s="71"/>
+      <c r="V49" s="70"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
@@ -67965,7 +67995,7 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="31"/>
-      <c r="V50" s="71"/>
+      <c r="V50" s="70"/>
     </row>
     <row r="51" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
@@ -67985,7 +68015,7 @@
       <c r="P51" s="55"/>
       <c r="Q51" s="55"/>
       <c r="R51" s="55"/>
-      <c r="V51" s="71"/>
+      <c r="V51" s="70"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
@@ -68005,7 +68035,7 @@
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
       <c r="S52" s="19"/>
-      <c r="V52" s="71"/>
+      <c r="V52" s="70"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="20">
@@ -68030,7 +68060,7 @@
       <c r="Q53" s="41"/>
       <c r="R53" s="41"/>
       <c r="S53" s="21"/>
-      <c r="V53" s="71"/>
+      <c r="V53" s="70"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="22"/>
@@ -68050,7 +68080,7 @@
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
       <c r="S54" s="31"/>
-      <c r="V54" s="71"/>
+      <c r="V54" s="70"/>
     </row>
     <row r="55" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
@@ -68082,7 +68112,7 @@
       </c>
       <c r="Q55" s="55"/>
       <c r="R55" s="55"/>
-      <c r="V55" s="71"/>
+      <c r="V55" s="70"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
@@ -68128,7 +68158,7 @@
         <v>57</v>
       </c>
       <c r="S56" s="19"/>
-      <c r="V56" s="71"/>
+      <c r="V56" s="70"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="20">
@@ -68181,7 +68211,7 @@
         <v>164</v>
       </c>
       <c r="S57" s="21"/>
-      <c r="V57" s="71"/>
+      <c r="V57" s="70"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
@@ -68227,7 +68257,7 @@
         <v>1320</v>
       </c>
       <c r="S58" s="31"/>
-      <c r="V58" s="71"/>
+      <c r="V58" s="70"/>
     </row>
     <row r="59" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -68249,7 +68279,7 @@
       <c r="P59" s="55"/>
       <c r="Q59" s="55"/>
       <c r="R59" s="55"/>
-      <c r="V59" s="71"/>
+      <c r="V59" s="70"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -68275,7 +68305,7 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="19"/>
-      <c r="V60" s="71"/>
+      <c r="V60" s="70"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="20">
@@ -68308,7 +68338,7 @@
       <c r="Q61" s="41"/>
       <c r="R61" s="41"/>
       <c r="S61" s="21"/>
-      <c r="V61" s="71"/>
+      <c r="V61" s="70"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
@@ -68334,7 +68364,7 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="31"/>
-      <c r="V62" s="71"/>
+      <c r="V62" s="70"/>
     </row>
     <row r="63" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -68354,7 +68384,7 @@
       <c r="P63" s="55"/>
       <c r="Q63" s="55"/>
       <c r="R63" s="55"/>
-      <c r="V63" s="71"/>
+      <c r="V63" s="70"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -68374,7 +68404,7 @@
       <c r="Q64" s="18"/>
       <c r="R64" s="18"/>
       <c r="S64" s="19"/>
-      <c r="V64" s="71"/>
+      <c r="V64" s="70"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="20">
@@ -68397,7 +68427,7 @@
       <c r="Q65" s="41"/>
       <c r="R65" s="41"/>
       <c r="S65" s="21"/>
-      <c r="V65" s="71"/>
+      <c r="V65" s="70"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
@@ -68417,7 +68447,7 @@
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="31"/>
-      <c r="V66" s="71"/>
+      <c r="V66" s="70"/>
     </row>
     <row r="67" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -68437,7 +68467,7 @@
       <c r="P67" s="55"/>
       <c r="Q67" s="55"/>
       <c r="R67" s="55"/>
-      <c r="V67" s="71"/>
+      <c r="V67" s="70"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -68457,7 +68487,7 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="19"/>
-      <c r="V68" s="71"/>
+      <c r="V68" s="70"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="20">
@@ -68480,7 +68510,7 @@
       <c r="Q69" s="41"/>
       <c r="R69" s="41"/>
       <c r="S69" s="21"/>
-      <c r="V69" s="71"/>
+      <c r="V69" s="70"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
@@ -68500,7 +68530,7 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="31"/>
-      <c r="V70" s="71"/>
+      <c r="V70" s="70"/>
     </row>
     <row r="71" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -68520,7 +68550,7 @@
       <c r="P71" s="55"/>
       <c r="Q71" s="55"/>
       <c r="R71" s="55"/>
-      <c r="V71" s="71"/>
+      <c r="V71" s="70"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -68540,7 +68570,7 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="19"/>
-      <c r="V72" s="71"/>
+      <c r="V72" s="70"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="20">
@@ -68563,7 +68593,7 @@
       <c r="Q73" s="41"/>
       <c r="R73" s="41"/>
       <c r="S73" s="21"/>
-      <c r="V73" s="71"/>
+      <c r="V73" s="70"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
@@ -68583,7 +68613,7 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="31"/>
-      <c r="V74" s="71"/>
+      <c r="V74" s="70"/>
     </row>
     <row r="75" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -68603,7 +68633,7 @@
       <c r="P75" s="55"/>
       <c r="Q75" s="55"/>
       <c r="R75" s="55"/>
-      <c r="V75" s="71"/>
+      <c r="V75" s="70"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -68623,7 +68653,7 @@
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
       <c r="S76" s="19"/>
-      <c r="V76" s="71"/>
+      <c r="V76" s="70"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="20">
@@ -68646,7 +68676,7 @@
       <c r="Q77" s="41"/>
       <c r="R77" s="41"/>
       <c r="S77" s="21"/>
-      <c r="V77" s="71"/>
+      <c r="V77" s="70"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
@@ -68666,7 +68696,7 @@
       <c r="Q78" s="24"/>
       <c r="R78" s="24"/>
       <c r="S78" s="31"/>
-      <c r="V78" s="71"/>
+      <c r="V78" s="70"/>
     </row>
     <row r="79" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -68686,7 +68716,7 @@
       <c r="P79" s="55"/>
       <c r="Q79" s="55"/>
       <c r="R79" s="55"/>
-      <c r="V79" s="71"/>
+      <c r="V79" s="70"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -68706,7 +68736,7 @@
       <c r="Q80" s="18"/>
       <c r="R80" s="18"/>
       <c r="S80" s="19"/>
-      <c r="V80" s="71"/>
+      <c r="V80" s="70"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="20">
@@ -68729,7 +68759,7 @@
       <c r="Q81" s="41"/>
       <c r="R81" s="41"/>
       <c r="S81" s="21"/>
-      <c r="V81" s="71"/>
+      <c r="V81" s="70"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
@@ -68749,7 +68779,7 @@
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
       <c r="S82" s="31"/>
-      <c r="V82" s="72"/>
+      <c r="V82" s="71"/>
     </row>
     <row r="83" spans="2:22" s="35" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -76741,19 +76771,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="149" priority="94">
+    <cfRule type="expression" dxfId="149" priority="93">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="94">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="93">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="147" priority="58">
+    <cfRule type="expression" dxfId="147" priority="57">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="58">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="57">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
@@ -76765,11 +76795,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="143" priority="54">
+    <cfRule type="expression" dxfId="143" priority="53">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="54">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="53">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
@@ -76797,35 +76827,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="135" priority="46">
+    <cfRule type="expression" dxfId="135" priority="45">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="45">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="133" priority="44">
+    <cfRule type="expression" dxfId="133" priority="43">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="43">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="131" priority="42">
+    <cfRule type="expression" dxfId="131" priority="41">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="41">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="129" priority="40">
+    <cfRule type="expression" dxfId="129" priority="39">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="39">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -76861,11 +76891,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="119" priority="30">
+    <cfRule type="expression" dxfId="119" priority="29">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="29">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -76885,19 +76915,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="113" priority="24">
+    <cfRule type="expression" dxfId="113" priority="23">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="23">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="111" priority="22">
+    <cfRule type="expression" dxfId="111" priority="21">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="21">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -76925,11 +76955,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
-    <cfRule type="expression" dxfId="103" priority="14">
+    <cfRule type="expression" dxfId="103" priority="13">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="13">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
@@ -76941,19 +76971,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="99" priority="10">
+    <cfRule type="expression" dxfId="99" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="9">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="97" priority="8">
+    <cfRule type="expression" dxfId="97" priority="7">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="7">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
@@ -76981,43 +77011,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="89" priority="102">
+    <cfRule type="expression" dxfId="89" priority="101">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="102">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="101">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="87" priority="100">
+    <cfRule type="expression" dxfId="87" priority="99">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="100">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="99">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="85" priority="98">
+    <cfRule type="expression" dxfId="85" priority="97">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="98">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="97">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="83" priority="96">
+    <cfRule type="expression" dxfId="83" priority="95">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="96">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="95">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D243:R243">
-    <cfRule type="expression" dxfId="81" priority="92">
+    <cfRule type="expression" dxfId="81" priority="91">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="92">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="91">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279">
@@ -77085,43 +77115,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D375:R375">
-    <cfRule type="expression" dxfId="63" priority="74">
+    <cfRule type="expression" dxfId="63" priority="73">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="74">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="73">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411">
-    <cfRule type="expression" dxfId="61" priority="72">
+    <cfRule type="expression" dxfId="61" priority="71">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="72">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="71">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D415:R415">
-    <cfRule type="expression" dxfId="59" priority="70">
+    <cfRule type="expression" dxfId="59" priority="69">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="69">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D419:R419">
-    <cfRule type="expression" dxfId="57" priority="68">
+    <cfRule type="expression" dxfId="57" priority="67">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="68">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="67">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455">
-    <cfRule type="expression" dxfId="55" priority="66">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="65">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D459:R459">

--- a/output7/【河洛文讀注音-閩拼調號】《禮記‧大學》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《禮記‧大學》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835E480A-AF0C-4541-89E2-8FD38EA6B1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150E6241-8592-416E-8607-A06F96462766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1350" windowWidth="22395" windowHeight="13035" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="718" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12552" uniqueCount="2930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12552" uniqueCount="2934">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9364,6 +9364,22 @@
   </si>
   <si>
     <t>【河洛文讀注音-閩拼調號】《禮記‧大學》.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校正音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -51887,16 +51903,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2929</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2930</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2931</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -55200,7 +55216,7 @@
         <v>499</v>
       </c>
       <c r="D237" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -59013,16 +59029,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2929</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2930</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2931</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -59281,16 +59297,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>2929</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>2930</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>2931</v>
       </c>
       <c r="D1" t="s">
-        <v>498</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="2" spans="1:4">
